--- a/data/metadata/mapping-nucleodiseminado.xlsx
+++ b/data/metadata/mapping-nucleodiseminado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="4198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="4100">
   <si>
     <t>44216000401 - Caudé</t>
   </si>
@@ -12311,307 +12311,13 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22173000801-triste</t>
-  </si>
-  <si>
-    <t>50225000102 - El Vergel de la Planilla</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50225000102-el-vergel-de-la-planilla</t>
-  </si>
-  <si>
-    <t>44029000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44029000199-diseminado</t>
-  </si>
-  <si>
-    <t>22907000999 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22907000999-diseminado</t>
-  </si>
-  <si>
-    <t>50227000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50227000199-diseminado</t>
-  </si>
-  <si>
-    <t>44026000299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44026000299-diseminado</t>
-  </si>
-  <si>
-    <t>50114000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50114000199-diseminado</t>
-  </si>
-  <si>
-    <t>22221000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22221000199-diseminado</t>
-  </si>
-  <si>
-    <t>44216000599 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44216000599-diseminado</t>
-  </si>
-  <si>
-    <t>50026000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50026000199-diseminado</t>
-  </si>
-  <si>
-    <t>50092000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50092000199-diseminado</t>
-  </si>
-  <si>
-    <t>22247000599 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22247000599-diseminado</t>
-  </si>
-  <si>
-    <t>50270000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50270000199-diseminado</t>
-  </si>
-  <si>
-    <t>22142000299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22142000299-diseminado</t>
-  </si>
-  <si>
-    <t>22099001299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22099001299-diseminado</t>
-  </si>
-  <si>
-    <t>50297000412 - Urbanización Torre del Pinar</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50297000412-urbanizacion-torre-del-pinar</t>
-  </si>
-  <si>
-    <t>22142000399 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22142000399-diseminado</t>
-  </si>
-  <si>
-    <t>50123000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50123000199-diseminado</t>
-  </si>
-  <si>
-    <t>44264000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44264000199-diseminado</t>
-  </si>
-  <si>
-    <t>44171000399 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44171000399-diseminado</t>
-  </si>
-  <si>
-    <t>50072000201 - Tranquera (La)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50072000201-tranquera-la</t>
-  </si>
-  <si>
-    <t>50140000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50140000199-diseminado</t>
-  </si>
-  <si>
-    <t>44071000301 - Algecira (La)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44071000301-algecira-la</t>
-  </si>
-  <si>
-    <t>50099000399 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50099000399-diseminado</t>
-  </si>
-  <si>
-    <t>220990012 - Espartal (El)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/220990012-espartal-el</t>
-  </si>
-  <si>
-    <t>222470005 – Montfalcó</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/222470005-montfalco</t>
-  </si>
-  <si>
-    <t>220990011 - Clamor de Rafales (La)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/220990011-clamor-de-rafales-la</t>
-  </si>
-  <si>
-    <t>22099001199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22099001199-diseminado</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50225000102-el-vergel-de-planilla</t>
-  </si>
-  <si>
-    <t>222470005 - Montfalcó</t>
-  </si>
-  <si>
-    <t>44068000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44068000199-diseminado</t>
-  </si>
-  <si>
-    <t>50095000999 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50095000999-diseminado</t>
-  </si>
-  <si>
-    <t>22066000299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22066000299-diseminado</t>
-  </si>
-  <si>
-    <t>22130002599 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22130002599-diseminado</t>
-  </si>
-  <si>
-    <t>50277000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50277000199-diseminado</t>
-  </si>
-  <si>
-    <t>44035000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44035000199-diseminado</t>
-  </si>
-  <si>
-    <t>44125000201 - Rudilla</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44125000201-rudilla</t>
-  </si>
-  <si>
-    <t>50207000299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50207000299-diseminado</t>
-  </si>
-  <si>
-    <t>22072000399 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22072000399-diseminado</t>
-  </si>
-  <si>
-    <t>50287000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50287000199-diseminado</t>
-  </si>
-  <si>
-    <t>50218000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50218000199-diseminado</t>
-  </si>
-  <si>
-    <t>22177000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22177000199-diseminado</t>
-  </si>
-  <si>
-    <t>22170000399 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/22170000399-diseminado</t>
-  </si>
-  <si>
-    <t>50024000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50024000199-diseminado</t>
-  </si>
-  <si>
-    <t>50075000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50075000199-diseminado</t>
-  </si>
-  <si>
-    <t>44038000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44038000199-diseminado</t>
-  </si>
-  <si>
-    <t>50163000701 - Val de Pinar</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50163000701-val-de-pinar</t>
-  </si>
-  <si>
-    <t>44174000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44174000199-diseminado</t>
-  </si>
-  <si>
-    <t>50185000201 - Morán</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50185000201-moran</t>
-  </si>
-  <si>
-    <t>50104000199 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/50104000199-diseminado</t>
-  </si>
-  <si>
-    <t>44234000299 - *Diseminado*</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleodiseminado/44234000299-diseminado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -12622,63 +12328,35 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12688,23 +12366,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="42.86"/>
-    <col customWidth="1" min="2" max="2" width="75.57"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -29105,698 +28776,6 @@
       <c r="B2050" s="2" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" s="3" t="s">
-        <v>4100</v>
-      </c>
-      <c r="B2051" s="4" t="s">
-        <v>4101</v>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" s="5" t="s">
-        <v>4102</v>
-      </c>
-      <c r="B2052" s="6" t="s">
-        <v>4103</v>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" s="5" t="s">
-        <v>4104</v>
-      </c>
-      <c r="B2053" s="6" t="s">
-        <v>4105</v>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" s="5" t="s">
-        <v>4106</v>
-      </c>
-      <c r="B2054" s="6" t="s">
-        <v>4107</v>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" s="5" t="s">
-        <v>4108</v>
-      </c>
-      <c r="B2055" s="6" t="s">
-        <v>4109</v>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" s="5" t="s">
-        <v>4110</v>
-      </c>
-      <c r="B2056" s="6" t="s">
-        <v>4111</v>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" s="5" t="s">
-        <v>4112</v>
-      </c>
-      <c r="B2057" s="6" t="s">
-        <v>4113</v>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" s="5" t="s">
-        <v>4114</v>
-      </c>
-      <c r="B2058" s="6" t="s">
-        <v>4115</v>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" s="5" t="s">
-        <v>4116</v>
-      </c>
-      <c r="B2059" s="6" t="s">
-        <v>4117</v>
-      </c>
-    </row>
-    <row r="2060">
-      <c r="A2060" s="5" t="s">
-        <v>4118</v>
-      </c>
-      <c r="B2060" s="6" t="s">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" s="5" t="s">
-        <v>4120</v>
-      </c>
-      <c r="B2061" s="6" t="s">
-        <v>4121</v>
-      </c>
-    </row>
-    <row r="2062">
-      <c r="A2062" s="5" t="s">
-        <v>4122</v>
-      </c>
-      <c r="B2062" s="6" t="s">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" s="5" t="s">
-        <v>4124</v>
-      </c>
-      <c r="B2063" s="6" t="s">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" s="5" t="s">
-        <v>4126</v>
-      </c>
-      <c r="B2064" s="6" t="s">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="2065">
-      <c r="A2065" s="5" t="s">
-        <v>4128</v>
-      </c>
-      <c r="B2065" s="6" t="s">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="2066">
-      <c r="A2066" s="5" t="s">
-        <v>4130</v>
-      </c>
-      <c r="B2066" s="6" t="s">
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="2067">
-      <c r="A2067" s="5" t="s">
-        <v>4132</v>
-      </c>
-      <c r="B2067" s="6" t="s">
-        <v>4133</v>
-      </c>
-    </row>
-    <row r="2068">
-      <c r="A2068" s="5" t="s">
-        <v>4134</v>
-      </c>
-      <c r="B2068" s="6" t="s">
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="2069">
-      <c r="A2069" s="5" t="s">
-        <v>4136</v>
-      </c>
-      <c r="B2069" s="6" t="s">
-        <v>4137</v>
-      </c>
-    </row>
-    <row r="2070">
-      <c r="A2070" s="5" t="s">
-        <v>4138</v>
-      </c>
-      <c r="B2070" s="6" t="s">
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" s="5" t="s">
-        <v>4140</v>
-      </c>
-      <c r="B2071" s="6" t="s">
-        <v>4141</v>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" s="5" t="s">
-        <v>4142</v>
-      </c>
-      <c r="B2072" s="6" t="s">
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" s="5" t="s">
-        <v>4144</v>
-      </c>
-      <c r="B2073" s="6" t="s">
-        <v>4145</v>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" s="5" t="s">
-        <v>4146</v>
-      </c>
-      <c r="B2074" s="6" t="s">
-        <v>4147</v>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" s="5" t="s">
-        <v>4148</v>
-      </c>
-      <c r="B2075" s="6" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" s="5" t="s">
-        <v>4150</v>
-      </c>
-      <c r="B2076" s="6" t="s">
-        <v>4151</v>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" s="5" t="s">
-        <v>4152</v>
-      </c>
-      <c r="B2077" s="6" t="s">
-        <v>4153</v>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" s="5" t="s">
-        <v>4100</v>
-      </c>
-      <c r="B2078" s="6" t="s">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" s="7" t="s">
-        <v>4155</v>
-      </c>
-      <c r="B2079" s="6" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" s="7" t="s">
-        <v>4156</v>
-      </c>
-      <c r="B2080" s="6" t="s">
-        <v>4157</v>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" s="5" t="s">
-        <v>4158</v>
-      </c>
-      <c r="B2081" s="6" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" s="5" t="s">
-        <v>4160</v>
-      </c>
-      <c r="B2082" s="6" t="s">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" s="5" t="s">
-        <v>4162</v>
-      </c>
-      <c r="B2083" s="6" t="s">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" s="5" t="s">
-        <v>4164</v>
-      </c>
-      <c r="B2084" s="6" t="s">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" s="5" t="s">
-        <v>4166</v>
-      </c>
-      <c r="B2085" s="6" t="s">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" s="5" t="s">
-        <v>4168</v>
-      </c>
-      <c r="B2086" s="6" t="s">
-        <v>4169</v>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" s="5" t="s">
-        <v>4170</v>
-      </c>
-      <c r="B2087" s="6" t="s">
-        <v>4171</v>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" s="5" t="s">
-        <v>4172</v>
-      </c>
-      <c r="B2088" s="6" t="s">
-        <v>4173</v>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" s="5" t="s">
-        <v>4174</v>
-      </c>
-      <c r="B2089" s="6" t="s">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" s="5" t="s">
-        <v>4176</v>
-      </c>
-      <c r="B2090" s="6" t="s">
-        <v>4177</v>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" s="5" t="s">
-        <v>4178</v>
-      </c>
-      <c r="B2091" s="6" t="s">
-        <v>4179</v>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" s="5" t="s">
-        <v>4180</v>
-      </c>
-      <c r="B2092" s="6" t="s">
-        <v>4181</v>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" s="5" t="s">
-        <v>4182</v>
-      </c>
-      <c r="B2093" s="6" t="s">
-        <v>4183</v>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" s="5" t="s">
-        <v>4184</v>
-      </c>
-      <c r="B2094" s="6" t="s">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" s="5" t="s">
-        <v>4186</v>
-      </c>
-      <c r="B2095" s="6" t="s">
-        <v>4187</v>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" s="5" t="s">
-        <v>4188</v>
-      </c>
-      <c r="B2096" s="6" t="s">
-        <v>4189</v>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" s="5" t="s">
-        <v>4190</v>
-      </c>
-      <c r="B2097" s="6" t="s">
-        <v>4191</v>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" s="5" t="s">
-        <v>4192</v>
-      </c>
-      <c r="B2098" s="6" t="s">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" s="5" t="s">
-        <v>4194</v>
-      </c>
-      <c r="B2099" s="6" t="s">
-        <v>4195</v>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" s="5" t="s">
-        <v>4196</v>
-      </c>
-      <c r="B2100" s="6" t="s">
-        <v>4197</v>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" s="5"/>
-      <c r="B2101" s="5"/>
-    </row>
-    <row r="2102">
-      <c r="A2102" s="5"/>
-      <c r="B2102" s="5"/>
-    </row>
-    <row r="2103">
-      <c r="A2103" s="5"/>
-      <c r="B2103" s="5"/>
-    </row>
-    <row r="2104">
-      <c r="A2104" s="5"/>
-      <c r="B2104" s="5"/>
-    </row>
-    <row r="2105">
-      <c r="A2105" s="5"/>
-      <c r="B2105" s="5"/>
-    </row>
-    <row r="2106">
-      <c r="A2106" s="5"/>
-      <c r="B2106" s="5"/>
-    </row>
-    <row r="2107">
-      <c r="A2107" s="5"/>
-      <c r="B2107" s="5"/>
-    </row>
-    <row r="2108">
-      <c r="A2108" s="5"/>
-      <c r="B2108" s="5"/>
-    </row>
-    <row r="2109">
-      <c r="A2109" s="5"/>
-      <c r="B2109" s="5"/>
-    </row>
-    <row r="2110">
-      <c r="A2110" s="5"/>
-      <c r="B2110" s="5"/>
-    </row>
-    <row r="2111">
-      <c r="A2111" s="5"/>
-      <c r="B2111" s="5"/>
-    </row>
-    <row r="2112">
-      <c r="A2112" s="5"/>
-      <c r="B2112" s="5"/>
-    </row>
-    <row r="2113">
-      <c r="A2113" s="5"/>
-      <c r="B2113" s="5"/>
-    </row>
-    <row r="2114">
-      <c r="A2114" s="5"/>
-      <c r="B2114" s="5"/>
-    </row>
-    <row r="2115">
-      <c r="A2115" s="5"/>
-      <c r="B2115" s="5"/>
-    </row>
-    <row r="2116">
-      <c r="A2116" s="5"/>
-      <c r="B2116" s="5"/>
-    </row>
-    <row r="2117">
-      <c r="A2117" s="5"/>
-      <c r="B2117" s="5"/>
-    </row>
-    <row r="2118">
-      <c r="A2118" s="5"/>
-      <c r="B2118" s="5"/>
-    </row>
-    <row r="2119">
-      <c r="A2119" s="5"/>
-      <c r="B2119" s="5"/>
-    </row>
-    <row r="2120">
-      <c r="A2120" s="5"/>
-      <c r="B2120" s="5"/>
-    </row>
-    <row r="2121">
-      <c r="A2121" s="5"/>
-      <c r="B2121" s="5"/>
-    </row>
-    <row r="2122">
-      <c r="A2122" s="5"/>
-      <c r="B2122" s="5"/>
-    </row>
-    <row r="2123">
-      <c r="A2123" s="5"/>
-      <c r="B2123" s="5"/>
-    </row>
-    <row r="2124">
-      <c r="A2124" s="5"/>
-      <c r="B2124" s="5"/>
-    </row>
-    <row r="2125">
-      <c r="A2125" s="5"/>
-      <c r="B2125" s="5"/>
-    </row>
-    <row r="2126">
-      <c r="A2126" s="5"/>
-      <c r="B2126" s="5"/>
-    </row>
-    <row r="2127">
-      <c r="A2127" s="5"/>
-      <c r="B2127" s="5"/>
-    </row>
-    <row r="2128">
-      <c r="A2128" s="5"/>
-      <c r="B2128" s="5"/>
-    </row>
-    <row r="2129">
-      <c r="A2129" s="5"/>
-      <c r="B2129" s="5"/>
-    </row>
-    <row r="2130">
-      <c r="A2130" s="5"/>
-      <c r="B2130" s="5"/>
-    </row>
-    <row r="2131">
-      <c r="A2131" s="5"/>
-      <c r="B2131" s="5"/>
-    </row>
-    <row r="2132">
-      <c r="A2132" s="5"/>
-      <c r="B2132" s="5"/>
-    </row>
-    <row r="2133">
-      <c r="A2133" s="5"/>
-      <c r="B2133" s="5"/>
-    </row>
-    <row r="2134">
-      <c r="A2134" s="5"/>
-      <c r="B2134" s="5"/>
-    </row>
-    <row r="2135">
-      <c r="A2135" s="5"/>
-      <c r="B2135" s="5"/>
-    </row>
-    <row r="2136">
-      <c r="A2136" s="5"/>
-      <c r="B2136" s="5"/>
-    </row>
-    <row r="2137">
-      <c r="A2137" s="5"/>
-      <c r="B2137" s="5"/>
-    </row>
-    <row r="2138">
-      <c r="A2138" s="5"/>
-      <c r="B2138" s="5"/>
-    </row>
-    <row r="2139">
-      <c r="A2139" s="5"/>
-      <c r="B2139" s="5"/>
-    </row>
-    <row r="2140">
-      <c r="A2140" s="5"/>
-      <c r="B2140" s="5"/>
-    </row>
-    <row r="2141">
-      <c r="A2141" s="5"/>
-      <c r="B2141" s="5"/>
-    </row>
-    <row r="2142">
-      <c r="A2142" s="5"/>
-      <c r="B2142" s="5"/>
-    </row>
-    <row r="2143">
-      <c r="A2143" s="5"/>
-      <c r="B2143" s="5"/>
-    </row>
-    <row r="2144">
-      <c r="A2144" s="5"/>
-      <c r="B2144" s="5"/>
-    </row>
-    <row r="2145">
-      <c r="A2145" s="5"/>
-      <c r="B2145" s="5"/>
-    </row>
-    <row r="2146">
-      <c r="A2146" s="5"/>
-      <c r="B2146" s="5"/>
-    </row>
-    <row r="2147">
-      <c r="A2147" s="5"/>
-      <c r="B2147" s="5"/>
-    </row>
-    <row r="2148">
-      <c r="A2148" s="5"/>
-      <c r="B2148" s="5"/>
-    </row>
-    <row r="2149">
-      <c r="A2149" s="5"/>
-      <c r="B2149" s="5"/>
-    </row>
-    <row r="2150">
-      <c r="A2150" s="5"/>
-      <c r="B2150" s="5"/>
-    </row>
-    <row r="2151">
-      <c r="A2151" s="5"/>
-      <c r="B2151" s="5"/>
-    </row>
-    <row r="2152">
-      <c r="A2152" s="5"/>
-      <c r="B2152" s="5"/>
-    </row>
-    <row r="2153">
-      <c r="A2153" s="5"/>
-      <c r="B2153" s="5"/>
-    </row>
-    <row r="2154">
-      <c r="A2154" s="5"/>
-      <c r="B2154" s="5"/>
-    </row>
-    <row r="2155">
-      <c r="A2155" s="5"/>
-      <c r="B2155" s="5"/>
-    </row>
-    <row r="2156">
-      <c r="A2156" s="5"/>
-      <c r="B2156" s="5"/>
-    </row>
-    <row r="2157">
-      <c r="A2157" s="5"/>
-      <c r="B2157" s="5"/>
-    </row>
-    <row r="2158">
-      <c r="A2158" s="5"/>
-      <c r="B2158" s="5"/>
-    </row>
-    <row r="2159">
-      <c r="A2159" s="5"/>
-      <c r="B2159" s="5"/>
-    </row>
-    <row r="2160">
-      <c r="A2160" s="5"/>
-      <c r="B2160" s="5"/>
-    </row>
-    <row r="2161">
-      <c r="A2161" s="5"/>
-      <c r="B2161" s="5"/>
-    </row>
-    <row r="2162">
-      <c r="A2162" s="5"/>
-      <c r="B2162" s="5"/>
-    </row>
-    <row r="2163">
-      <c r="A2163" s="5"/>
-      <c r="B2163" s="5"/>
-    </row>
-    <row r="2164">
-      <c r="A2164" s="5"/>
-      <c r="B2164" s="5"/>
-    </row>
-    <row r="2165">
-      <c r="A2165" s="5"/>
-      <c r="B2165" s="5"/>
-    </row>
-    <row r="2166">
-      <c r="A2166" s="5"/>
-      <c r="B2166" s="5"/>
-    </row>
-    <row r="2167">
-      <c r="A2167" s="5"/>
-      <c r="B2167" s="5"/>
-    </row>
-    <row r="2168">
-      <c r="A2168" s="5"/>
-      <c r="B2168" s="5"/>
-    </row>
-    <row r="2169">
-      <c r="A2169" s="5"/>
-      <c r="B2169" s="5"/>
-    </row>
-    <row r="2170">
-      <c r="A2170" s="5"/>
-      <c r="B2170" s="5"/>
-    </row>
-    <row r="2171">
-      <c r="A2171" s="5"/>
-      <c r="B2171" s="5"/>
-    </row>
-    <row r="2172">
-      <c r="A2172" s="5"/>
-      <c r="B2172" s="5"/>
-    </row>
-    <row r="2173">
-      <c r="A2173" s="5"/>
-      <c r="B2173" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -31850,57 +30829,7 @@
     <hyperlink r:id="rId2048" ref="B2048"/>
     <hyperlink r:id="rId2049" ref="B2049"/>
     <hyperlink r:id="rId2050" ref="B2050"/>
-    <hyperlink r:id="rId2051" ref="B2051"/>
-    <hyperlink r:id="rId2052" ref="B2052"/>
-    <hyperlink r:id="rId2053" ref="B2053"/>
-    <hyperlink r:id="rId2054" ref="B2054"/>
-    <hyperlink r:id="rId2055" ref="B2055"/>
-    <hyperlink r:id="rId2056" ref="B2056"/>
-    <hyperlink r:id="rId2057" ref="B2057"/>
-    <hyperlink r:id="rId2058" ref="B2058"/>
-    <hyperlink r:id="rId2059" ref="B2059"/>
-    <hyperlink r:id="rId2060" ref="B2060"/>
-    <hyperlink r:id="rId2061" ref="B2061"/>
-    <hyperlink r:id="rId2062" ref="B2062"/>
-    <hyperlink r:id="rId2063" ref="B2063"/>
-    <hyperlink r:id="rId2064" ref="B2064"/>
-    <hyperlink r:id="rId2065" ref="B2065"/>
-    <hyperlink r:id="rId2066" ref="B2066"/>
-    <hyperlink r:id="rId2067" ref="B2067"/>
-    <hyperlink r:id="rId2068" ref="B2068"/>
-    <hyperlink r:id="rId2069" ref="B2069"/>
-    <hyperlink r:id="rId2070" ref="B2070"/>
-    <hyperlink r:id="rId2071" ref="B2071"/>
-    <hyperlink r:id="rId2072" ref="B2072"/>
-    <hyperlink r:id="rId2073" ref="B2073"/>
-    <hyperlink r:id="rId2074" ref="B2074"/>
-    <hyperlink r:id="rId2075" ref="B2075"/>
-    <hyperlink r:id="rId2076" ref="B2076"/>
-    <hyperlink r:id="rId2077" ref="B2077"/>
-    <hyperlink r:id="rId2078" ref="B2078"/>
-    <hyperlink r:id="rId2079" ref="B2079"/>
-    <hyperlink r:id="rId2080" ref="B2080"/>
-    <hyperlink r:id="rId2081" ref="B2081"/>
-    <hyperlink r:id="rId2082" ref="B2082"/>
-    <hyperlink r:id="rId2083" ref="B2083"/>
-    <hyperlink r:id="rId2084" ref="B2084"/>
-    <hyperlink r:id="rId2085" ref="B2085"/>
-    <hyperlink r:id="rId2086" ref="B2086"/>
-    <hyperlink r:id="rId2087" ref="B2087"/>
-    <hyperlink r:id="rId2088" ref="B2088"/>
-    <hyperlink r:id="rId2089" ref="B2089"/>
-    <hyperlink r:id="rId2090" ref="B2090"/>
-    <hyperlink r:id="rId2091" ref="B2091"/>
-    <hyperlink r:id="rId2092" ref="B2092"/>
-    <hyperlink r:id="rId2093" ref="B2093"/>
-    <hyperlink r:id="rId2094" ref="B2094"/>
-    <hyperlink r:id="rId2095" ref="B2095"/>
-    <hyperlink r:id="rId2096" ref="B2096"/>
-    <hyperlink r:id="rId2097" ref="B2097"/>
-    <hyperlink r:id="rId2098" ref="B2098"/>
-    <hyperlink r:id="rId2099" ref="B2099"/>
-    <hyperlink r:id="rId2100" ref="B2100"/>
   </hyperlinks>
-  <drawing r:id="rId2101"/>
+  <drawing r:id="rId2051"/>
 </worksheet>
 </file>